--- a/artfynd/A 34547-2025 artfynd.xlsx
+++ b/artfynd/A 34547-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY269"/>
+  <dimension ref="A1:AY270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18974,7 +18974,7 @@
         <v>127303922</v>
       </c>
       <c r="B186" t="n">
-        <v>91711</v>
+        <v>92181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -19000,6 +19000,9 @@
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
       <c r="P186" t="inlineStr">
         <is>
           <t>Haratjärnen NÖ, Jmt</t>
@@ -19059,6 +19062,11 @@
       </c>
       <c r="AE186" t="b">
         <v>0</v>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
       </c>
       <c r="AG186" t="b">
         <v>0</v>
@@ -27260,6 +27268,141 @@
       </c>
       <c r="AY269" t="inlineStr"/>
     </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>127303917</v>
+      </c>
+      <c r="B270" t="n">
+        <v>92179</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Haratjärnen NÖ, Jmt</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>443959</v>
+      </c>
+      <c r="R270" t="n">
+        <v>7010152</v>
+      </c>
+      <c r="S270" t="n">
+        <v>10</v>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>Åre</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>Hallen</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="AB270" t="inlineStr">
+        <is>
+          <t>18:38</t>
+        </is>
+      </c>
+      <c r="AD270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
+      <c r="AG270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI270" t="inlineStr">
+        <is>
+          <t>Bördig kontinuitetsgranskog.</t>
+        </is>
+      </c>
+      <c r="AJ270" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK270" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO270" t="inlineStr">
+        <is>
+          <t>På död ullticka på medelgrov granlåga. # Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr"/>
+      <c r="AW270" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AX270" t="inlineStr">
+        <is>
+          <t>Johan Råghall</t>
+        </is>
+      </c>
+      <c r="AY270" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34547-2025 artfynd.xlsx
+++ b/artfynd/A 34547-2025 artfynd.xlsx
@@ -18974,7 +18974,7 @@
         <v>127303922</v>
       </c>
       <c r="B186" t="n">
-        <v>92181</v>
+        <v>92182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -27273,7 +27273,7 @@
         <v>127303917</v>
       </c>
       <c r="B270" t="n">
-        <v>92179</v>
+        <v>92180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
